--- a/Materials/Materials.xlsx
+++ b/Materials/Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fakiko\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDF5881-A7BB-46ED-9F74-74619C7B930A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DE4C5C-6E80-41F7-B481-C11A0B3D9853}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>LM18200T</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>https://www.robotshop.com/es/es/codificador-motor-cuadratura-v2-lynxmotion-con-cable.html</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/13750</t>
   </si>
 </sst>
 </file>
@@ -159,13 +162,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -450,7 +454,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="C17" sqref="C17:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +695,7 @@
       <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>2490940</v>
       </c>
       <c r="E17">
@@ -706,7 +710,9 @@
       <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="4">
+        <v>1593416</v>
+      </c>
       <c r="E18">
         <f>0.33*4</f>
         <v>1.32</v>
@@ -719,7 +725,9 @@
       <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="4">
+        <v>1593417</v>
+      </c>
       <c r="E19">
         <v>0.4</v>
       </c>
@@ -733,6 +741,9 @@
         <v>1</v>
       </c>
       <c r="C20" s="2"/>
+      <c r="D20" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E20">
         <v>49.95</v>
       </c>
@@ -755,6 +766,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{7FA98D88-E6A2-403A-95A6-186A08F567AD}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{A64A3B5C-81F6-4F00-9CF6-EB71341D2536}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
